--- a/program/program/network_simulation_results.xlsx
+++ b/program/program/network_simulation_results.xlsx
@@ -1,78 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\univer\4 курс\КМ\Computer_networks_course_work\program\program\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27240" windowHeight="11430"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="27240" windowHeight="11430" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Results" sheetId="1" r:id="rId1"/>
+    <sheet name="Results" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="12">
-  <si>
-    <t>Тип</t>
-  </si>
-  <si>
-    <t>Розмір повідомлення</t>
-  </si>
-  <si>
-    <t>Розмір інформаційного пакету</t>
-  </si>
-  <si>
-    <t>Кількість інформаційних пакетів</t>
-  </si>
-  <si>
-    <t>Кількість службових пакетів</t>
-  </si>
-  <si>
-    <t>Розмір інформаційного пакету (байт)</t>
-  </si>
-  <si>
-    <t>Розмір службового трафіку (байт)</t>
-  </si>
-  <si>
-    <t>Загальний трафік(байт)</t>
-  </si>
-  <si>
-    <t>Час</t>
-  </si>
-  <si>
-    <t>Datagram</t>
-  </si>
-  <si>
-    <t>Virtual channel</t>
-  </si>
-  <si>
-    <t>##########################################################################################################################################################################################################################</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -97,25 +52,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -403,1003 +417,1157 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" customWidth="1"/>
-    <col min="6" max="6" width="33.7109375" customWidth="1"/>
-    <col min="7" max="7" width="31.42578125" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" customWidth="1"/>
+    <col width="14.85546875" customWidth="1" min="1" max="1"/>
+    <col width="20.7109375" customWidth="1" min="2" max="2"/>
+    <col width="29" customWidth="1" min="3" max="3"/>
+    <col width="34.5703125" customWidth="1" min="4" max="4"/>
+    <col width="26.42578125" customWidth="1" min="5" max="5"/>
+    <col width="33.7109375" customWidth="1" min="6" max="6"/>
+    <col width="31.42578125" customWidth="1" min="7" max="7"/>
+    <col width="22.85546875" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2">
+    <row r="1" ht="44.25" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Тип</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Розмір повідомлення</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Розмір інформаційного пакету</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Кількість інформаційних пакетів</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Кількість службових пакетів</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Розмір інформаційного пакету (байт)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Розмір службового трафіку (байт)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Загальний трафік(байт)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Час</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Datagram</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>2048</v>
       </c>
-      <c r="C2">
-        <v>1024</v>
-      </c>
-      <c r="D2">
+      <c r="C2" t="n">
+        <v>1024</v>
+      </c>
+      <c r="D2" t="n">
         <v>105</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>105</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>71680</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>5880</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>77560</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>8.33</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Datagram</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>4096</v>
       </c>
-      <c r="C3">
-        <v>1024</v>
-      </c>
-      <c r="D3">
+      <c r="C3" t="n">
+        <v>1024</v>
+      </c>
+      <c r="D3" t="n">
         <v>175</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>175</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>143360</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>9800</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>153160</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>16.18</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Datagram</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>8192</v>
       </c>
-      <c r="C4">
-        <v>1024</v>
-      </c>
-      <c r="D4">
+      <c r="C4" t="n">
+        <v>1024</v>
+      </c>
+      <c r="D4" t="n">
         <v>315</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>315</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>286720</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>17640</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>304360</v>
       </c>
-      <c r="I4">
-        <v>32.450000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>16384</v>
-      </c>
-      <c r="C5">
-        <v>1024</v>
-      </c>
-      <c r="D5">
+      <c r="I4" t="n">
+        <v>32.45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Datagram</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>16384</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1024</v>
+      </c>
+      <c r="D5" t="n">
         <v>595</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>595</v>
       </c>
-      <c r="F5">
-        <v>573440</v>
-      </c>
-      <c r="G5">
+      <c r="F5" t="n">
+        <v>573440</v>
+      </c>
+      <c r="G5" t="n">
         <v>33320</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>606760</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>64.59</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Virtual channel</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>2048</v>
       </c>
-      <c r="C6">
-        <v>1024</v>
-      </c>
-      <c r="D6">
+      <c r="C6" t="n">
+        <v>1024</v>
+      </c>
+      <c r="D6" t="n">
         <v>105</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>385</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>71680</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>12250</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>83930</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>11.63</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Virtual channel</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>4096</v>
       </c>
-      <c r="C7">
-        <v>1024</v>
-      </c>
-      <c r="D7">
+      <c r="C7" t="n">
+        <v>1024</v>
+      </c>
+      <c r="D7" t="n">
         <v>175</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>455</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>143360</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>12950</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>156310</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>22.41</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Virtual channel</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>8192</v>
       </c>
-      <c r="C8">
-        <v>1024</v>
-      </c>
-      <c r="D8">
+      <c r="C8" t="n">
+        <v>1024</v>
+      </c>
+      <c r="D8" t="n">
         <v>315</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>595</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>286720</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>14350</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>301070</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>43.93</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>16384</v>
-      </c>
-      <c r="C9">
-        <v>1024</v>
-      </c>
-      <c r="D9">
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Virtual channel</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>16384</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1024</v>
+      </c>
+      <c r="D9" t="n">
         <v>595</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>875</v>
       </c>
-      <c r="F9">
-        <v>573440</v>
-      </c>
-      <c r="G9">
+      <c r="F9" t="n">
+        <v>573440</v>
+      </c>
+      <c r="G9" t="n">
         <v>17150</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>590590</v>
       </c>
-      <c r="I9">
-        <v>87.29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>16384</v>
-      </c>
-      <c r="C11">
-        <v>1024</v>
-      </c>
-      <c r="D11">
+      <c r="I9" t="n">
+        <v>87.29000000000001</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>##########################################################################################################################################################################################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Datagram</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>16384</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1024</v>
+      </c>
+      <c r="D11" t="n">
         <v>595</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>595</v>
       </c>
-      <c r="F11">
-        <v>573440</v>
-      </c>
-      <c r="G11">
+      <c r="F11" t="n">
+        <v>573440</v>
+      </c>
+      <c r="G11" t="n">
         <v>33320</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>606760</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="n">
         <v>64.59</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12">
-        <v>16384</v>
-      </c>
-      <c r="C12">
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Datagram</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>16384</v>
+      </c>
+      <c r="C12" t="n">
         <v>2048</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>315</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>315</v>
       </c>
-      <c r="F12">
-        <v>573440</v>
-      </c>
-      <c r="G12">
+      <c r="F12" t="n">
+        <v>573440</v>
+      </c>
+      <c r="G12" t="n">
         <v>17640</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="n">
         <v>591080</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="n">
         <v>63.74</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13">
-        <v>16384</v>
-      </c>
-      <c r="C13">
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Datagram</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>16384</v>
+      </c>
+      <c r="C13" t="n">
         <v>4096</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>175</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>175</v>
       </c>
-      <c r="F13">
-        <v>573440</v>
-      </c>
-      <c r="G13">
+      <c r="F13" t="n">
+        <v>573440</v>
+      </c>
+      <c r="G13" t="n">
         <v>9800</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="n">
         <v>583240</v>
       </c>
-      <c r="I13">
+      <c r="I13" t="n">
         <v>63.88</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14">
-        <v>16384</v>
-      </c>
-      <c r="C14">
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Datagram</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>16384</v>
+      </c>
+      <c r="C14" t="n">
         <v>8192</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>105</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>105</v>
       </c>
-      <c r="F14">
-        <v>573440</v>
-      </c>
-      <c r="G14">
+      <c r="F14" t="n">
+        <v>573440</v>
+      </c>
+      <c r="G14" t="n">
         <v>5880</v>
       </c>
-      <c r="H14">
+      <c r="H14" t="n">
         <v>579320</v>
       </c>
-      <c r="I14">
+      <c r="I14" t="n">
         <v>63.48</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15">
-        <v>16384</v>
-      </c>
-      <c r="C15">
-        <v>1024</v>
-      </c>
-      <c r="D15">
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Virtual channel</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>16384</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1024</v>
+      </c>
+      <c r="D15" t="n">
         <v>595</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>875</v>
       </c>
-      <c r="F15">
-        <v>573440</v>
-      </c>
-      <c r="G15">
+      <c r="F15" t="n">
+        <v>573440</v>
+      </c>
+      <c r="G15" t="n">
         <v>17150</v>
       </c>
-      <c r="H15">
+      <c r="H15" t="n">
         <v>590590</v>
       </c>
-      <c r="I15">
-        <v>87.289999999999992</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16">
-        <v>16384</v>
-      </c>
-      <c r="C16">
+      <c r="I15" t="n">
+        <v>87.28999999999999</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Virtual channel</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>16384</v>
+      </c>
+      <c r="C16" t="n">
         <v>2048</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>315</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>595</v>
       </c>
-      <c r="F16">
-        <v>573440</v>
-      </c>
-      <c r="G16">
+      <c r="F16" t="n">
+        <v>573440</v>
+      </c>
+      <c r="G16" t="n">
         <v>14350</v>
       </c>
-      <c r="H16">
+      <c r="H16" t="n">
         <v>587790</v>
       </c>
-      <c r="I16">
+      <c r="I16" t="n">
         <v>86.81</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17">
-        <v>16384</v>
-      </c>
-      <c r="C17">
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Virtual channel</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16384</v>
+      </c>
+      <c r="C17" t="n">
         <v>4096</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>175</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>455</v>
       </c>
-      <c r="F17">
-        <v>573440</v>
-      </c>
-      <c r="G17">
+      <c r="F17" t="n">
+        <v>573440</v>
+      </c>
+      <c r="G17" t="n">
         <v>12950</v>
       </c>
-      <c r="H17">
+      <c r="H17" t="n">
         <v>586390</v>
       </c>
-      <c r="I17">
-        <v>87.76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18">
-        <v>16384</v>
-      </c>
-      <c r="C18">
+      <c r="I17" t="n">
+        <v>87.76000000000001</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Virtual channel</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>16384</v>
+      </c>
+      <c r="C18" t="n">
         <v>8192</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>105</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>385</v>
       </c>
-      <c r="F18">
-        <v>573440</v>
-      </c>
-      <c r="G18">
+      <c r="F18" t="n">
+        <v>573440</v>
+      </c>
+      <c r="G18" t="n">
         <v>12250</v>
       </c>
-      <c r="H18">
+      <c r="H18" t="n">
         <v>585690</v>
       </c>
-      <c r="I18">
+      <c r="I18" t="n">
         <v>87.19</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20">
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>##########################################################################################################################################################################################################################</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n"/>
+      <c r="C19" s="2" t="n"/>
+      <c r="D19" s="2" t="n"/>
+      <c r="E19" s="2" t="n"/>
+      <c r="F19" s="2" t="n"/>
+      <c r="G19" s="2" t="n"/>
+      <c r="H19" s="2" t="n"/>
+      <c r="I19" s="2" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Datagram</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
         <v>2048</v>
       </c>
-      <c r="C20">
-        <v>1024</v>
-      </c>
-      <c r="D20">
+      <c r="C20" t="n">
+        <v>1024</v>
+      </c>
+      <c r="D20" t="n">
         <v>105</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
         <v>105</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="n">
         <v>71680</v>
       </c>
-      <c r="G20">
+      <c r="G20" t="n">
         <v>5880</v>
       </c>
-      <c r="H20">
+      <c r="H20" t="n">
         <v>77560</v>
       </c>
-      <c r="I20">
+      <c r="I20" t="n">
         <v>16.64</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21">
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Datagram</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
         <v>4096</v>
       </c>
-      <c r="C21">
-        <v>1024</v>
-      </c>
-      <c r="D21">
+      <c r="C21" t="n">
+        <v>1024</v>
+      </c>
+      <c r="D21" t="n">
         <v>175</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>175</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="n">
         <v>143360</v>
       </c>
-      <c r="G21">
+      <c r="G21" t="n">
         <v>9800</v>
       </c>
-      <c r="H21">
+      <c r="H21" t="n">
         <v>153160</v>
       </c>
-      <c r="I21">
+      <c r="I21" t="n">
         <v>32.5</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22">
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Datagram</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
         <v>8192</v>
       </c>
-      <c r="C22">
-        <v>1024</v>
-      </c>
-      <c r="D22">
+      <c r="C22" t="n">
+        <v>1024</v>
+      </c>
+      <c r="D22" t="n">
         <v>315</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="n">
         <v>315</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="n">
         <v>286720</v>
       </c>
-      <c r="G22">
+      <c r="G22" t="n">
         <v>17640</v>
       </c>
-      <c r="H22">
+      <c r="H22" t="n">
         <v>304360</v>
       </c>
-      <c r="I22">
+      <c r="I22" t="n">
         <v>65.27000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23">
-        <v>16384</v>
-      </c>
-      <c r="C23">
-        <v>1024</v>
-      </c>
-      <c r="D23">
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Datagram</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>16384</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1024</v>
+      </c>
+      <c r="D23" t="n">
         <v>595</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="n">
         <v>595</v>
       </c>
-      <c r="F23">
-        <v>573440</v>
-      </c>
-      <c r="G23">
+      <c r="F23" t="n">
+        <v>573440</v>
+      </c>
+      <c r="G23" t="n">
         <v>33320</v>
       </c>
-      <c r="H23">
+      <c r="H23" t="n">
         <v>606760</v>
       </c>
-      <c r="I23">
-        <v>130.16999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24">
+      <c r="I23" t="n">
+        <v>130.17</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Virtual channel</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
         <v>2048</v>
       </c>
-      <c r="C24">
-        <v>1024</v>
-      </c>
-      <c r="D24">
+      <c r="C24" t="n">
+        <v>1024</v>
+      </c>
+      <c r="D24" t="n">
         <v>105</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="n">
         <v>385</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="n">
         <v>71680</v>
       </c>
-      <c r="G24">
+      <c r="G24" t="n">
         <v>12250</v>
       </c>
-      <c r="H24">
+      <c r="H24" t="n">
         <v>83930</v>
       </c>
-      <c r="I24">
+      <c r="I24" t="n">
         <v>23.46</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25">
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Virtual channel</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
         <v>4096</v>
       </c>
-      <c r="C25">
-        <v>1024</v>
-      </c>
-      <c r="D25">
+      <c r="C25" t="n">
+        <v>1024</v>
+      </c>
+      <c r="D25" t="n">
         <v>175</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="n">
         <v>455</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="n">
         <v>143360</v>
       </c>
-      <c r="G25">
+      <c r="G25" t="n">
         <v>12950</v>
       </c>
-      <c r="H25">
+      <c r="H25" t="n">
         <v>156310</v>
       </c>
-      <c r="I25">
+      <c r="I25" t="n">
         <v>45.1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26">
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Virtual channel</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
         <v>8192</v>
       </c>
-      <c r="C26">
-        <v>1024</v>
-      </c>
-      <c r="D26">
+      <c r="C26" t="n">
+        <v>1024</v>
+      </c>
+      <c r="D26" t="n">
         <v>315</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="n">
         <v>595</v>
       </c>
-      <c r="F26">
+      <c r="F26" t="n">
         <v>286720</v>
       </c>
-      <c r="G26">
+      <c r="G26" t="n">
         <v>14350</v>
       </c>
-      <c r="H26">
+      <c r="H26" t="n">
         <v>301070</v>
       </c>
-      <c r="I26">
-        <v>88.65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27">
-        <v>16384</v>
-      </c>
-      <c r="C27">
-        <v>1024</v>
-      </c>
-      <c r="D27">
+      <c r="I26" t="n">
+        <v>88.65000000000001</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Virtual channel</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>16384</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1024</v>
+      </c>
+      <c r="D27" t="n">
         <v>595</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="n">
         <v>875</v>
       </c>
-      <c r="F27">
-        <v>573440</v>
-      </c>
-      <c r="G27">
+      <c r="F27" t="n">
+        <v>573440</v>
+      </c>
+      <c r="G27" t="n">
         <v>17150</v>
       </c>
-      <c r="H27">
+      <c r="H27" t="n">
         <v>590590</v>
       </c>
-      <c r="I27">
+      <c r="I27" t="n">
         <v>172.33</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29">
-        <v>16384</v>
-      </c>
-      <c r="C29">
-        <v>1024</v>
-      </c>
-      <c r="D29">
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>##########################################################################################################################################################################################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Datagram</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>16384</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1024</v>
+      </c>
+      <c r="D29" t="n">
         <v>595</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="n">
         <v>595</v>
       </c>
-      <c r="F29">
-        <v>573440</v>
-      </c>
-      <c r="G29">
+      <c r="F29" t="n">
+        <v>573440</v>
+      </c>
+      <c r="G29" t="n">
         <v>33320</v>
       </c>
-      <c r="H29">
+      <c r="H29" t="n">
         <v>606760</v>
       </c>
-      <c r="I29">
+      <c r="I29" t="n">
         <v>128.31</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30">
-        <v>16384</v>
-      </c>
-      <c r="C30">
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Datagram</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>16384</v>
+      </c>
+      <c r="C30" t="n">
         <v>2048</v>
       </c>
-      <c r="D30">
+      <c r="D30" t="n">
         <v>315</v>
       </c>
-      <c r="E30">
+      <c r="E30" t="n">
         <v>315</v>
       </c>
-      <c r="F30">
-        <v>573440</v>
-      </c>
-      <c r="G30">
+      <c r="F30" t="n">
+        <v>573440</v>
+      </c>
+      <c r="G30" t="n">
         <v>17640</v>
       </c>
-      <c r="H30">
+      <c r="H30" t="n">
         <v>591080</v>
       </c>
-      <c r="I30">
+      <c r="I30" t="n">
         <v>128.1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31">
-        <v>16384</v>
-      </c>
-      <c r="C31">
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Datagram</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>16384</v>
+      </c>
+      <c r="C31" t="n">
         <v>4096</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="n">
         <v>175</v>
       </c>
-      <c r="E31">
+      <c r="E31" t="n">
         <v>175</v>
       </c>
-      <c r="F31">
-        <v>573440</v>
-      </c>
-      <c r="G31">
+      <c r="F31" t="n">
+        <v>573440</v>
+      </c>
+      <c r="G31" t="n">
         <v>9800</v>
       </c>
-      <c r="H31">
+      <c r="H31" t="n">
         <v>583240</v>
       </c>
-      <c r="I31">
+      <c r="I31" t="n">
         <v>128.63</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32">
-        <v>16384</v>
-      </c>
-      <c r="C32">
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Datagram</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>16384</v>
+      </c>
+      <c r="C32" t="n">
         <v>8192</v>
       </c>
-      <c r="D32">
+      <c r="D32" t="n">
         <v>105</v>
       </c>
-      <c r="E32">
+      <c r="E32" t="n">
         <v>105</v>
       </c>
-      <c r="F32">
-        <v>573440</v>
-      </c>
-      <c r="G32">
+      <c r="F32" t="n">
+        <v>573440</v>
+      </c>
+      <c r="G32" t="n">
         <v>5880</v>
       </c>
-      <c r="H32">
+      <c r="H32" t="n">
         <v>579320</v>
       </c>
-      <c r="I32">
+      <c r="I32" t="n">
         <v>126.34</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33">
-        <v>16384</v>
-      </c>
-      <c r="C33">
-        <v>1024</v>
-      </c>
-      <c r="D33">
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Virtual channel</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>16384</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1024</v>
+      </c>
+      <c r="D33" t="n">
         <v>595</v>
       </c>
-      <c r="E33">
+      <c r="E33" t="n">
         <v>875</v>
       </c>
-      <c r="F33">
-        <v>573440</v>
-      </c>
-      <c r="G33">
+      <c r="F33" t="n">
+        <v>573440</v>
+      </c>
+      <c r="G33" t="n">
         <v>17150</v>
       </c>
-      <c r="H33">
+      <c r="H33" t="n">
         <v>590590</v>
       </c>
-      <c r="I33">
+      <c r="I33" t="n">
         <v>173.63</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34">
-        <v>16384</v>
-      </c>
-      <c r="C34">
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Virtual channel</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>16384</v>
+      </c>
+      <c r="C34" t="n">
         <v>2048</v>
       </c>
-      <c r="D34">
+      <c r="D34" t="n">
         <v>315</v>
       </c>
-      <c r="E34">
+      <c r="E34" t="n">
         <v>595</v>
       </c>
-      <c r="F34">
-        <v>573440</v>
-      </c>
-      <c r="G34">
+      <c r="F34" t="n">
+        <v>573440</v>
+      </c>
+      <c r="G34" t="n">
         <v>14350</v>
       </c>
-      <c r="H34">
+      <c r="H34" t="n">
         <v>587790</v>
       </c>
-      <c r="I34">
+      <c r="I34" t="n">
         <v>175.98</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35">
-        <v>16384</v>
-      </c>
-      <c r="C35">
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Virtual channel</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>16384</v>
+      </c>
+      <c r="C35" t="n">
         <v>4096</v>
       </c>
-      <c r="D35">
+      <c r="D35" t="n">
         <v>175</v>
       </c>
-      <c r="E35">
+      <c r="E35" t="n">
         <v>455</v>
       </c>
-      <c r="F35">
-        <v>573440</v>
-      </c>
-      <c r="G35">
+      <c r="F35" t="n">
+        <v>573440</v>
+      </c>
+      <c r="G35" t="n">
         <v>12950</v>
       </c>
-      <c r="H35">
+      <c r="H35" t="n">
         <v>586390</v>
       </c>
-      <c r="I35">
+      <c r="I35" t="n">
         <v>175.64</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36">
-        <v>16384</v>
-      </c>
-      <c r="C36">
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Virtual channel</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>16384</v>
+      </c>
+      <c r="C36" t="n">
         <v>8192</v>
       </c>
-      <c r="D36">
+      <c r="D36" t="n">
         <v>105</v>
       </c>
-      <c r="E36">
+      <c r="E36" t="n">
         <v>385</v>
       </c>
-      <c r="F36">
-        <v>573440</v>
-      </c>
-      <c r="G36">
+      <c r="F36" t="n">
+        <v>573440</v>
+      </c>
+      <c r="G36" t="n">
         <v>12250</v>
       </c>
-      <c r="H36">
+      <c r="H36" t="n">
         <v>585690</v>
       </c>
-      <c r="I36">
+      <c r="I36" t="n">
         <v>172.72</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Datagram</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>8192</v>
+      </c>
+      <c r="C37" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D37" t="n">
+        <v>70</v>
+      </c>
+      <c r="E37" t="n">
+        <v>70</v>
+      </c>
+      <c r="F37" t="n">
+        <v>286720</v>
+      </c>
+      <c r="G37" t="n">
+        <v>3920</v>
+      </c>
+      <c r="H37" t="n">
+        <v>290640</v>
+      </c>
+      <c r="I37" t="n">
+        <v>64.07000000000001</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Datagram</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>8192</v>
+      </c>
+      <c r="C38" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D38" t="n">
+        <v>35</v>
+      </c>
+      <c r="E38" t="n">
+        <v>35</v>
+      </c>
+      <c r="F38" t="n">
+        <v>286720</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1960</v>
+      </c>
+      <c r="H38" t="n">
+        <v>288680</v>
+      </c>
+      <c r="I38" t="n">
+        <v>62.67</v>
       </c>
     </row>
   </sheetData>
